--- a/data/hotels_by_city/Dallas/Dallas_shard_420.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_420.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="874">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Junkyardrules</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>The location was great. The staff was very friendly. We were greeted or acknowledged every time we were in the lobby. The facility and rooms were clean and comfortable. The outside fire pit and sitting area was a nice feature. I would definitely stay here again. More</t>
   </si>
   <si>
+    <t>Bob U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r560745242-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>We were celebrating our 30th Anniversary on Valentines day, and even thought we only live about 30 min away, we wanted a place close to the restaurant, so we could enjoy dinner, uber back and forth. I have never stayed here before, and was very pleased with this hotel. It's new, 18 months old, the staff was excellent, obviously the hotel new and modern. The rooms were great, comfortable, and everything you needed. The only minor complaint with the room, there did seem to be constant low background noise from the bathroom fan, and kitchen area. Nothing that bothered us, but it was there.The location is great, easy on/off of Highway 121, Close to DFW Airport for those traveling. Looked like a nice pool from our room. They had a happy hour at night, and breakfast in the am. The only thing that was missing that I would have liked, was a hot tub. I usually stay at Marriotts, but will not hesitate to stay in a Homewood during our travels in the future.More</t>
   </si>
   <si>
+    <t>surfinsoul</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r585194123-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>Stayed in town for family graduations and hotel was perfect. Spacious room for guests to hang out. Nice pool area with comfy outdoor furniture.  Likes the modern/contemporary vibe of the interior d for. We will stay again.More</t>
   </si>
   <si>
+    <t>chirogolfer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r585133701-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t>Easy access, good parking, well lit outdoors. Very clean and bright interior. Room was large, clean, quiet, and well appointed. Noticed a gym, meeting room and outdoor pool area although we did not use these areas. More</t>
   </si>
   <si>
+    <t>Gregory H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r584890333-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -270,6 +285,9 @@
     <t>Very nice hotel We would stay here again. The staff is great The hotel. I can't exspess is how well is kept up. The Home wood suits is so cose to my brother that's way we stay  here. I can't said anyamoreMore</t>
   </si>
   <si>
+    <t>Dawn O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r581550189-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>Very fresh decor, love the new colors. Hotel staff very helpful and welcoming. Great pool and outdoor grilling area and lounge with fire pit. Very convenient to everything!!! Very quiet and easy to rest. Beds are Soo comfortable!!More</t>
   </si>
   <si>
+    <t>Jenafer W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r581422676-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -309,6 +330,9 @@
     <t>We recently had a paintball tournament and chose to stay at this Homewood Suites simply based on location. If it is available, we will always choose a Homewood Suites hotel; here’s why;It was very rainy during our visit and having to be at the Texas Motor Speedway, it was as muddy as anything I had ever seen. Paintball uniforms, clothes, shoes, everything was nasty but, the staff of this Homewood accommodated ya and allowed us to you their pressure hose to rinse things off. This location was always on top of any request we had big or small. towels ✅ dishwasher soap ✅ late check out ✅ breakfast ✅ dinner ✅!!! Every shift, the staff was amazing!!!More</t>
   </si>
   <si>
+    <t>Paul S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r581301020-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -330,6 +354,9 @@
     <t>Clean, spacious and reasonable. Every member of our group commented on the great accommodations. All were impressed with the spaciousness and cleanliness of the room. The breakfast was off the charts! The only negative comment was the lack of “In-room” safes.More</t>
   </si>
   <si>
+    <t>HPEven</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r575603396-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -357,6 +384,9 @@
     <t>Had a mini family reunion, Hotel was perfect for all of the families involved. The staff was helpful with special requests. The rooms were quiet and spacious. The beds were comfortable. We did not use the kitchen but it had everything you needed if you wanted to stay in.More</t>
   </si>
   <si>
+    <t>geoffreyfaltot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r575184667-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -381,6 +411,9 @@
     <t>For me, a hotel stay is made and broke by the service and the cleanliness. This place was on point with how my room was serviced routinely, clean, everything put back or replaced - great job! Service and cleanliness is phenomenal. Finally, and this is just personal preference, the room layout is the best I've been in for a hotel suite. It's open, spacious, everything is connected with no unneeded doors, awkward closets, strange rooms, or out of place furniture. The layout simply just makes sense. More</t>
   </si>
   <si>
+    <t>rryan313131</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r573168666-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -405,6 +438,9 @@
     <t>Very nice, very clean, very friendly hotel. Super comfortable here.....great breakfast buffet's and super "happy hours." Nothing bad to say about this property. Would stay here every chance I'd get. You should too.More</t>
   </si>
   <si>
+    <t>Brandi B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r567480528-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -435,6 +471,9 @@
     <t>I stay in many hotels and most for way more expensive than what I paid for this location very nice very clean safe location. Rooms were very nice and spacious, would definitely stay here again and it would be very nice to stay here for a few days. Very safe location of town.More</t>
   </si>
   <si>
+    <t>tinaphun12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r567454678-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -450,6 +489,9 @@
     <t>We enjoyed our stay.  Breakfast had a nice selection, staff was friendly, we spent an afternoon at the pool and enjoyed having a larger than normal hotel room with additional accommodations.  we slept really well in More</t>
   </si>
   <si>
+    <t>Jacqueline P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r567437269-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -465,6 +507,9 @@
     <t>This is a really nice hotel with a great rooms and a good breakfast buffet. The rooms are suites that include a fully functional kitchen. The beds are comfortable with a selection of pillows. We would definitely stay here again.More</t>
   </si>
   <si>
+    <t>adamlucanusmrw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r565255165-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -489,6 +534,9 @@
     <t>Easy in out with Hilton's electronic key and online receipts.  Hotel is new and clean.  I actually like the convenient set up of the room from a functionality standpoint if you need to spend some time in the room on the PC doing business.  It's new and clean.  Haven't run into issues with cooking smell in the room yet.  Meals are typical but seem well tended to, hot, clean area.  A good bet if you are doing business nearby or have friend's or relative in Trophy Club you are visiting.More</t>
   </si>
   <si>
+    <t>Heather J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r555663890-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -516,6 +564,9 @@
     <t>We had a great stay that included a very good fitness facility, laundry facility and oversized (and very clean) guestroom. The pool is closed in winter, so be sure to check on that before you book. Will definitely be back if I am in the area.More</t>
   </si>
   <si>
+    <t>caylab2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r552592939-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -540,6 +591,9 @@
     <t>This hotel was very easy to get in and out of in the cold weather. Exterior doors made it easy to get inside close to your room. Nice elevators and good breakfast . Would stay here again for sure ! ! ! More</t>
   </si>
   <si>
+    <t>Hope M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r549886133-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -567,6 +621,9 @@
     <t>when I arrived the front desk clerk was very friendly and courteous and she welcome us a diamond member and had a great conversation about Christmas wrapping of presents we enjoyed her personality. The hotel was beautiful decorated for the holidays and the  breakfast staff that morning was friendly and courteous just needed a little more choices  for breakfast but everything was wonderful and had a Great Stay there.More</t>
   </si>
   <si>
+    <t>andrewlm2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r548957253-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -591,6 +648,9 @@
     <t>We've stayed at this facility a total of 4 nights in the past year and continue to be amazed at the price/amenities, especially in the DFW metro area. Our room was essentially a suite with full kitchen, table, and a sofa in the living/sleep room. On the same trip we paid the same price for a regular hotel room in a much smaller city.More</t>
   </si>
   <si>
+    <t>Lori W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r547549898-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -615,6 +675,9 @@
     <t>Great room - very comfortable pillows and mattress! Everything looked brand new. Loved the kitchen and we booked a deluxe room which had the snacks and beverages included! Staff was great and the price was incredible. Great breakfast! Don't think twice to book this hotel!More</t>
   </si>
   <si>
+    <t>Mike R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r544597051-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -640,6 +703,9 @@
   </si>
   <si>
     <t>The hotel room and grounds were excellent. Rooms feature a kitchen for any self cooking which was a plus. Tv, bedding, bathroom all good. Lobby very clean and good breakfast selection. Room had a ceiling fan. More</t>
+  </si>
+  <si>
+    <t>Lloyd R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r544438060-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
@@ -666,6 +732,9 @@
 Most of the staff I interacted with were nice with a exception of a few housekeeping staff who would ignore me while I...I've stayed at this property 3 different stays now in a span of 5 weeks for work related business trip. The location was within a 5min drive to my customers which was nice.  The home wood suite itself is relatively new and it's nice knowing your staying at a more new modern hotel vs old or renovated properties the still somehow feel old. You can use the honors app digital key to access anywhere around the property like your room, fitness room and hotel entrance so you can just pick the room during the check in and skip the front desk and head straight to your room. The ammienities are nice for the studio king rooms. You get a full size refrigerator, electric stove, a big LED TV in the middle, and walk in shower to name a few. Beds were comfortable n I had no trouble sleeping like I usually do when I stay at a hotel for a trip. You also have a nice patio and pool area outside but I didn't use those much as it was cold and I was in n out of my room for the duration of my work trip. Evening receptions provide snacks and free beer on tap which reminds me of embassy suites but without the open bar. Most of the staff I interacted with were nice with a exception of a few housekeeping staff who would ignore me while I was saying hi to them as I passed by. Overall it was a pleasant stay at a newer Homewood suites property. I am however knocking off a star because on my most recent visit I was charged a $250 smoking fee when I don't smoke at all (even have asthma) and it was my first time encountering getting this charge out of all my years staying at hilton properties and being gold/diamond member. I was able to reach a manager the next day who took care of me and the problem and removed the $250 fee. I didn't catch her name but if she's reading this, thank you for fixing the problem! I was ready to fight it but she believed me n that means allot. More</t>
   </si>
   <si>
+    <t>785sashad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r543741634-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -690,6 +759,9 @@
     <t>From just looking at this hotel, it appears to be very clean. However, do yourself a favor and make sure to check the room before getting nice and settled in. I was in a room for 3 days and unfortunately found a used condom on the side of the bed, under the bed skirt, on my last day there. So that means that before I checked in this room was not properly cleaned, nor was it properly cleaned the entire time I was there. When bringing this to the housekeeping manager's attention, she said just leave it there and they will get it later. I was completely outraged. Then when bringing this to the general manager's attention, Jay, he was just about as bad. I requested to speak with someone above him and he directed me to customer service, as if they were going to resolve anything. I have been having the run around and it is quite sad because they are the ones who have employees not doing their jobs and all I simply wanted was some kind of actions taken and my voice to be heard. Instead I get told to call customer care if I have any further complaint because there is nobody higher than Jay. Well, I know Jay doesn't own that hotel, so there is someone higher!More</t>
   </si>
   <si>
+    <t>597alwinc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r543740798-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -711,6 +783,9 @@
     <t>Clean facility and spaced out well--not bumping elbows with people in and out.  The breakfast was exceptional for hotel AM meals.  Food was fresh and hot, and changed slightly in variety day to day.  Check in/out was fast and easy.  Bathroom in my unit was really nice--made me want to renovate my own at home.  Only complaint would be the elevators were slow.  Overall a good four nights.More</t>
   </si>
   <si>
+    <t>adrienneh907</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r541053801-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -735,6 +810,9 @@
     <t>All staff members that I encountered from the lady who checked me out was amazing Marah was full of energy when I walked through the door held a conversation with me and got me all checked in at the same time.  I came down later had a silly request but she assisted me in looking for my silly request but it was not any luck but she directed me to the right location where I could find what I needed for that night. Just a very pleasant person.  The next day breakfast lady was extremely nice as well helping everyone with all their request and she got everything everyone wanted.  The morning lady was just as pleasant as Marah when I wanted to extend my check out time and she did it with ease. It was a relaxing weekend away from home even though I live in the metroplex I will definitely be staying at this location again beautiful staff beautiful location and beautiful facilities.More</t>
   </si>
   <si>
+    <t>John P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r535657229-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -762,6 +840,9 @@
     <t>Good quality suites hotel with complimentary breakfast, light evening meal with wine or beer M-TH, nice pool, workout room, business area etc. The service was great, the breakfast and evening meals very good, and the rooms comfortable. The only drawback is it was a bit pricier than I have been used to with such a hotel. That said I will be back as everything else was very acceptable.More</t>
   </si>
   <si>
+    <t>Janie J B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r534225868-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -786,6 +867,9 @@
     <t>Very pleasant stay. Very clean and bright.  Everything in working order.  I will stay again when in the area.  Very pleasant staff and front desk.  Very helpful with any questions about places to eat, visit etc.More</t>
   </si>
   <si>
+    <t>rfish1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r532396516-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -810,6 +894,9 @@
     <t>Really enjoyed our stay and the location.  It was nice to be a little removed from the business of the city.  Just a few minutes away from Southlake, and the hotel was very comfortable and quiet.  The phone key was a great bonus.  More</t>
   </si>
   <si>
+    <t>abg411</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r531559543-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -834,6 +921,9 @@
     <t>Great Stay. Staff and Room was Excellent . I woul highly recommend the property. The pool was very nice. There was a basketball area also and my son went to the desk and checked out a basketball. There was a fire pit too. All in all very nice stay.More</t>
   </si>
   <si>
+    <t>352sallyd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r531583559-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -855,6 +945,9 @@
     <t>This was either a new hotel or newly renovated. My stay was awesome. It was a last minute trip due to death in the family. We were prepared to settle for anything but we didn't have too. The staff was so friendly and accommodating.More</t>
   </si>
   <si>
+    <t>Christina S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r529747054-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -882,6 +975,9 @@
     <t>Great rooms, great service..awesome pool, basketball court. Great breakfast items to choose from. Suites with lots of space and very comfortable. Ample parking.  Staff helpful and knowledgeable. Grills for cooking by pool.More</t>
   </si>
   <si>
+    <t>yongk748</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r529341307-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -924,6 +1020,9 @@
     <t>This was our second time to stay at this location. Marah, at the front desk remembered us from the last time we were there, 4 months ago! The facilites, and staff are all wonderful! The suites are always clean, and the pool/fire pit area is so relaxing!!! We will be back again. More</t>
   </si>
   <si>
+    <t>Lawox858</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r528322478-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -942,6 +1041,9 @@
     <t>The hotel is new and it is very nice but the food was cold every morning.  Plus they had appetizers at night that should have been warm but they were cold as well.  Rooms are great, just don't eat their food.More</t>
   </si>
   <si>
+    <t>Mick M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r527477337-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -966,6 +1068,9 @@
     <t>Stayed here for 2.5 weeks.  Enjoyed everything about the stay.  Kitchen, pool area with grills and nice furniture, laundry and workout facilities were very nice and convenient. Always returned to a clean room. Will be back!More</t>
   </si>
   <si>
+    <t>George F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r526386723-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -990,6 +1095,9 @@
     <t>.....the pain to make a reservation.. Add a day to the reservation. And the pain checking in... Our guest was very pleased..The room was clean and well appointed. The staff was pleasant and efficient.The issue was a poorly trained individual at the front desk ....The initial contact was painful .More</t>
   </si>
   <si>
+    <t>southerntraveler100</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r526157727-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1014,6 +1122,9 @@
     <t>New hotel done right! Excellent staff behind the desk, cleaning the room, food area and everywhere else. Extremely roomy and attractive room has a large kitchen area with a dishwasher, large fridge and counter tops. Nice sofa, stool and desk area. Absolutely more storage than in most houses. Dressing area with plenty of room and a separate bath with a great shower. Great pool with a lazy river, waterfalls, lights changing colors, an area to swim and lots of lounge chairs and tables and chairs. Adjacent are 2 great propane grills with LOTS of counter space. A gorgeous fire pit area and more tables and chairs for outside. Great fitness area and computer center. The food area is adjacent and serves a nicely cooked breakfast with a variety throughout the week. An afternoon snack with wine and beer is greatly appreciated and very generous. Seating is unusual in any hotel with tables and chairs, but also counters and high top chairs and booth type areas. Lots of parking and 2 roomy elevators which work quietly, smoothly and fast. I'll be back to this one and explore other Homewood Suites elsewhere.More</t>
   </si>
   <si>
+    <t>Melinda B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r526192883-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1029,6 +1140,9 @@
     <t>I chose this hotel specifically for the creative pool and basketball court.  The grill out area was great too!  It was just a really fun place for our family to gather, relax and reconnect with new friends.More</t>
   </si>
   <si>
+    <t>J2260BPmiguela</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r525592861-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1050,6 +1164,9 @@
     <t>I had a great experience with Ashley at the front desk when I first arrived and Maria whom was my room attendant. Both were very kind and hospitable. I really liked the location of the hotel since it was 10 minutes from work. All in all I had a wonderful experience.More</t>
   </si>
   <si>
+    <t>garysC9840LA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r524535977-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1074,6 +1191,9 @@
     <t>love this place but this stay was less than I expected.  Room service walked in on us as they knock, like it ok to come in if the door bar is not locked. When we got the room maint was in there working repairing holes.  There were no more rooms available.  My Hilton stay was not linked to my rewards so we were not able to do the things on the app that we were promised.  Also this caused a problem with getting our stay added to the account.More</t>
   </si>
   <si>
+    <t>C1829QIjessicah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r523856905-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1095,6 +1215,9 @@
     <t>We had a mini girls family trip.  Great place to unwind. The place is clean and modern.  Wonderful amenities and friendly staff.  We really enjoyed the outdoor fire pit and pool area.  We'll be going again!More</t>
   </si>
   <si>
+    <t>SeeJennyCruise</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r523756306-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1110,6 +1233,9 @@
     <t>We were very pleased with our rooms (love the ceiling fans in Homewood Suites) and the staff were very helpful and accommodating.  The breakfast area is comfortable with an option to sit out by the pool.  There was a tasty hot breakfast with plenty of cold options.  We were very pleased with the value, service from the front desk, and with the accommodations.More</t>
   </si>
   <si>
+    <t>201chanad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r523258154-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1128,6 +1254,9 @@
     <t>I would love to stay here again, suite was impecable, breakfast items were varied and very well prepared. Would love it to have rewards after a 5th night, and I stayed longer. Becky in the front desk should be more welcoming.Overall everything was great!More</t>
   </si>
   <si>
+    <t>ProfCoop</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r518595415-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1155,6 +1284,9 @@
     <t>We occasionally stay in the Southlake/Trophy Club area for convenience and decided to try this (relatively) new property on this visit. The room was nice and the whole hotel seemed like a step up from the usual Homewood Suites experience... except for the breakfast. That's when my wife and I remembered why we usually choose a different brand in the Hilton family. Not a bad breakfast, just nothing special and too many people all seeming to fight over the food. You can't really blame a hotel for some of its clientele, but certain chains/brands seem to attract people that don't know how to be courteous or considerate of others. More</t>
   </si>
   <si>
+    <t>Ac H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r516400189-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1179,6 +1311,9 @@
     <t>Looking for a weekend getaway thus us a nice location with family or friends. Grocery store down the road and plenty of restaurants to choose from in the area. Not far from the speedway also. Would stay again.More</t>
   </si>
   <si>
+    <t>shilohr937</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r499235439-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1206,6 +1341,9 @@
     <t>We loved the hotel and location! It was a perfect place for a quiet weekend alone. The location was excellent and provided many dining choices. The environment was a good one for singles, couples, and families.More</t>
   </si>
   <si>
+    <t>NJOYNC2CA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r497749102-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1257,6 +1395,9 @@
     <t>We enjoyed the amenities, location and clean rooms.  The size of the rooms we all had was a definite bonus, being we were there for a family reunion.  We rotated between rooms and never felt cramped beyond comfort.More</t>
   </si>
   <si>
+    <t>lauriecg2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r494446538-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1299,6 +1440,9 @@
     <t>No issues with this hotel.  Close to Grapevine restaurants and DFW airport.  Beautiful hotel and wonderful rooms.  Very comfortable with every amenity you might need for your trip.  Very nice stay, no problems with the rooms or staff.  Customer service was excellent.More</t>
   </si>
   <si>
+    <t>939tedr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r491655658-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1323,6 +1467,9 @@
     <t>My wife and I had a very pleasant stay with no concerns or issues at all. The hotel was very clean and very quite. The staff was exceptional.  The check in and check out was very easy. We will book afain when we need to be in this area.More</t>
   </si>
   <si>
+    <t>TheGalligators</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r489893197-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1350,6 +1497,9 @@
     <t>We stayed the end of May. The overall facility is fairly new. Housekeeping is a disaster and we had an unwanted surprise left in our bed after the spotty house cleaning personnel actually did make up the room. Resolution to the lack of consistent and attention to detail by the cleaning staff was met with little concern by the front desk receptionists.More</t>
   </si>
   <si>
+    <t>David H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r489519158-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1377,6 +1527,9 @@
     <t>This hotel was just the perfect place for friends and family to stay for a wedding weekend of festivities. It's friendly, and it offers everything we needed while going to and coming from activities in a state and city with which I'm not familiar. I enjoyed it entirely, especially the amount of space I had. The pool was great for the children present.More</t>
   </si>
   <si>
+    <t>F9301DXjessicae</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r489518835-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1410,6 +1563,9 @@
     <t>We stayed here for a family wedding and the staff could not have been more accommodating and helpful.  The grandkids loved the pool and the adults enjoyed the grill, complimentary breakfast, complimentary wifi.  The rooms were very clean and spacious. I would highly recommend this facility.More</t>
   </si>
   <si>
+    <t>Stacie E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r488566058-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1461,6 +1617,9 @@
     <t>Had to stay for an extended stay with family and it was very good hotel for that purpose. All the cooking amenities and very large fridge freezer. Rooms are modern and the hotel serves an evening snack Monday - Thursday. Breakfast available every morning.  Staff are friendly and generally helpful.More</t>
   </si>
   <si>
+    <t>Diana H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r485816041-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1476,6 +1635,9 @@
     <t>Hotel was clean and staff was very helpful and knowledgeable about the surrounding area and places to see.  This is a new hotel for the area. Nice and up to date. Good restaurants close to hotel and within walking distance.More</t>
   </si>
   <si>
+    <t>life108</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r484452049-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1500,6 +1662,9 @@
     <t>I'm an Hilton reward member and this is the 2nd time to stay at this location within 3 months.  I travel by myself for work and each time I check in I'm not offered a bottled water or another type of room.   Both times a male and female come in and check in together they are offered bottle water and another type of room.    I would like to be treated equally even if I'm by myself.More</t>
   </si>
   <si>
+    <t>K132VYjennifert</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r483794557-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1521,6 +1686,9 @@
     <t>The staff was friendly. The room was large and comfortable. It even had a ceiling fan! lol  Everything is new. We were close to several restaurants. My only complaint is road noise because you are next to a highway. It really wasn't an issue though.More</t>
   </si>
   <si>
+    <t>tinaj715</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r483574076-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1539,6 +1707,9 @@
     <t>The staff at this hotel were extremely helpful and very friendly. The room was amazing. The hotel was very clean. The whole stay was great. I would definitely stay at this hotel again. The bed was very comfortable and all the amenities in the room were great.More</t>
   </si>
   <si>
+    <t>soarhigher4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r483162396-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1587,6 +1758,9 @@
     <t>From the staff to the complementary amazing breakfast each morning to the pool to the firepit this place is a great home away from home.  The only issue that we had was a sketchy internet service. We stay in a lot of hotels and this one was really great and comfortable.More</t>
   </si>
   <si>
+    <t>karenmP4750AC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r481140349-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1614,6 +1788,9 @@
     <t>We had a wonderful stay and would recommend this facility. The staff was very accommodating to our large family group.  We enjoyed the fire pit area for socializing and the breakfast was wonderful. Freeway close and only 20 minutes to the Dallas Fort Worth airportMore</t>
   </si>
   <si>
+    <t>Elaine M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r480354691-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1656,6 +1833,9 @@
     <t>Still new, everything clean and well taken care of. Stand up showers, full size refrigerators, modern decor, all make this property one of the nicest Homewood Suites I've ever stayed in. Put it this way, I can't wait to go back!More</t>
   </si>
   <si>
+    <t>A9127YGchrisw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r474871512-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1671,6 +1851,9 @@
     <t>Very clean and open room layout.  Inviting lobby with plenty of places to sit.  nice sized fitness center.  I didn't get a chance to try the pool but sent a pic to my kids who became instantly jealous.  They did a great job in the design of this hotel.More</t>
   </si>
   <si>
+    <t>Donnie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r472473238-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1695,6 +1878,9 @@
     <t>Great place to stay ifYou are looking at getting the most bang for your. I know. The staff is friendly, the hotel is exceptionally nice, and the amenities are great. I will definitely return whether it's for business or pleasure. More</t>
   </si>
   <si>
+    <t>942geraldb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r470756175-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1743,6 +1929,9 @@
     <t>We went to a hotel who left us standing in the lobby for over an hour with a reservation so I started searching the internet for a hotel with rooms and found this one!  Thank goodness, upon check in was greeted by the sweetest woman had the best room with all the bells and whistles.  We had a hot breakfast as well.More</t>
   </si>
   <si>
+    <t>jumokeo227</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r468921810-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1767,6 +1956,9 @@
     <t>Experienced staff members. Comparable good hotel room rates.   Cooperative housekeeping team members.  Apart from the social amenities in house, there are other extra curricula activities outside , like an outside kitchen, pool and a basketball court. More than adequate commercial parking space More</t>
   </si>
   <si>
+    <t>christinahI9632XK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r466681279-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1791,6 +1983,9 @@
     <t>From the minute we walked in the front door to the minute we had to leave, this was a welcoming environment. It is modern, open concept, and clean. And the room was incredible. The kitchen and bathroom are tiled, and there's carpet in the "living area." It's open and smelled new. We enjoyed every aspect of being there and were a little sad to check out.More</t>
   </si>
   <si>
+    <t>denisee511</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r463592498-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1812,6 +2007,9 @@
     <t>Clean comfortable room! Customer service was outstanding! The convenience of breakfast hot and ready each morning is great for the busy business travelers. The evening social enjoying a nice glass of wine is a great way to unwind after a busy day.More</t>
   </si>
   <si>
+    <t>LadyBaylor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r462770873-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1857,6 +2055,9 @@
     <t>This hotel provided a wonderful opportunity to relax and to also take care of the needed business activities as well.  The hotel staff was very helpful and the new look and feel of the property was very modern.  Needless to say, I enjoyed my stay at this Homewood Suites.  I have never been let down or disappointed while staying at a Homewood Suites hotel and I do travel quite often.  So thanks for such a wonderful experience and I look forward to my next visit to your location or another Homewood Suites hotel.More</t>
   </si>
   <si>
+    <t>Jeff V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r462130634-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1875,6 +2076,9 @@
     <t>Well worth getting off interstate a few miles.   Great military discount.   Very clean.  Very modern. Fire put about was nice. Homewood suites definitely starting to compete with embassy on nice clean spacious rooms More</t>
   </si>
   <si>
+    <t>W3412YDgaryf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r461893917-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1893,6 +2097,9 @@
     <t>I highly recommend this hotel for it's new clean rooms and ammenities. The complimentary breakfast and evening wine/beer/appetizers are a great bonus!  Pool and fitness center ammenities are also quite good and new.More</t>
   </si>
   <si>
+    <t>mattbB8392ML</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r460827714-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1917,6 +2124,9 @@
     <t>Excellent hotel and value for rate stayed.  Just hard to find on Uber and on GPS which made travel difficult.  Breakfast, room, and facilities were all fantastic.  I would stay here again.  They just need to get their address info updated on GPS and Uber.  Other than that all was good.More</t>
   </si>
   <si>
+    <t>K1436RTmichaelm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r460577187-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1939,6 +2149,9 @@
   </si>
   <si>
     <t>Nice, Clean, spacious hotel with professional friendly staff. Suite is nice, big. Has all the comfort of being at home. kitchen with pots, pans, utensils, silverware. Liked the security of seeing surveillance cameras throughout the hotel. social event is a nice touch after a long day of seminars the complimentary wine and hors d'oeuvre was a nice touch.More</t>
+  </si>
+  <si>
+    <t>NorthwestSensei</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r460232240-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
@@ -1973,6 +2186,9 @@
 The plumbing on the 4th floor was slow to drain and the shower was plumbed backwards so you had a little hot water when you turn on but cold afterwards. If you stay choose the 2nd or 3rd floor since the shower pressure and plumbing will probably be more to your liking. But remember this hotel is right off the freeway so there may be more road...The hotel opened in Aug 2016. The newness has not yet worn off. The accommodations are comfortable. It is a good location. Close to the airport and nearby Westlake and Southlake businesses. I will chalk up most of the following to management trying to recoup start up costs by reducing Services. I am usually not this critical. However, with a new facility they should be able to meet expectations without trying really hard.No airport shuttle. Not unusual for Homewood. The Marriott a 1/2 mile away has a shuttle.A pool but the management does not consistently keep it heated. It is pretty but basically just eye candy.No hot tub.A workout room but not all equipment is working correctly. This is odd for such a new facility.Breakfast and evening snacks are the bare minimum for a Homewood Suite. I got the impression we were on rations. Only the bare minimum was provided and slow to restock. The hours for the evening reception were shorter than other locations by an hour.The plumbing on the 4th floor was slow to drain and the shower was plumbed backwards so you had a little hot water when you turn on but cold afterwards. If you stay choose the 2nd or 3rd floor since the shower pressure and plumbing will probably be more to your liking. But remember this hotel is right off the freeway so there may be more road noise.No reception bag for Platinum Honors member.When I asked for facility staff to unplug the shower drain I was told no one was available at 8 pm. I was amazed, no facilities after 5 pm and no housekeeping after noon! I was offered 1000 points for not being able to use the shower overnight. Lame.So I will likely stay at the nearby Marriott or Hampton Inn, opening soon. Or maybe just drive a bit farther. There are no sidewalks in this area so you must walk even though the offices for the two business parks are less than a 1/2 mile away. There is a restaurant next door but you cannot walk there safely. You must drive 1.5 miles to get to a restaurant due to the one way road to access this hotel.More</t>
   </si>
   <si>
+    <t>Anthony T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r459903803-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -1997,6 +2213,9 @@
     <t>New hotel. The hotel condition was excellent. Very good size rooms with very large screen TV's and small kitchen area. Staff was very helpful &amp; friendly. They have a nice outdoor patio with a fire pit alongside the pool area.More</t>
   </si>
   <si>
+    <t>Lyndsey H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r456724671-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -2024,6 +2243,9 @@
     <t>We had a very weird request as we were staying at their neighbor hampton inn right next door. We walked in and explained the situation that we were staying next door but the beds were awful and we were very tired and grouchy that we wanted to check out their hotel and if it was at all possible to look at their beds in their hotel. The woman smiled and said it wasn't a weird request and gladly understood our concern escorted us to a room and we were sold. We checked out immediately of hampton inn and moved into homewood for the night! The beds were much more comfortable with a pillow top the room was spotless and loved the modern touches. The common areas were also wonderful. Everything about this hotel was just incredible. We will definitely be staying here again when we are in the area.More</t>
   </si>
   <si>
+    <t>Travelz999</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r456702373-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -2039,6 +2261,9 @@
     <t>Had a family reunion over the weekend and our family stayed at this hotel. The hotel was very clean , the staff ready to help , breakfast was very good.I will definitely recommend this hotel to Friends relatives.More</t>
   </si>
   <si>
+    <t>davidkF8710IH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r456616981-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -2057,6 +2282,9 @@
     <t>Couch was filthy when I arrived and in a survey I stated that. Was told it would be professionally cleaned immediately. A week later it hadn't been cleaned when I checked out. Had to put a blanket down to actually sit on it. But the kicker was when housekeeping handed me the bedding to change myself.More</t>
   </si>
   <si>
+    <t>amanda05009</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r455692332-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -2081,6 +2309,9 @@
     <t>First time at this hotel and my family and I had an exceptional stay. The front office manager Chandni Jariwala was absolutely amazing and was super accommodating of any request. I would definitely come stay again!More</t>
   </si>
   <si>
+    <t>nicolee920</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r444378958-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -2108,6 +2339,9 @@
     <t>I visited Dallas on business and found this particular Homewood Suites based on online reviews. The staff was incredibly friendly and the rooms were beautiful and immaculate! The whole hotel was decorated with handmade decorations that added a "homey" touch!More</t>
   </si>
   <si>
+    <t>Susan F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r443368401-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -2135,6 +2369,9 @@
     <t>This is a very new hotel and everything is nice and new. The room looked just like the picture.  We even had a nice view (third floor).  Breakfast buffet was extensive and tasted great.  Pool area was very nice and clean.  Loved the outdoor areas, especially the fire pits.  We stayed at this location because it was fairly near University of North Texas.  But it was extremely convenient for many other sites.  Very close to Texas Motor Speedway, Hawaiian Falls, Roanoke.  Not far from Arlington, Fort Worth Stockyards, and DFW.More</t>
   </si>
   <si>
+    <t>angelisar2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r443224603-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -2153,6 +2390,9 @@
     <t>Great customer service, accommodation and location. The staff was always proactive and looking to assist the guests. The option that they have at night is very convenient and they offer variety of food and drinks. They should have IRD or another option for dinner in case that someone wants to dine late at night.More</t>
   </si>
   <si>
+    <t>shane e</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r443085853-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -2195,6 +2435,9 @@
     <t>Very nice hotel which looks brand new and clean and very welcoming.  Great convenient location.  Nice amenities like pool, hot tub, fire pit and fitness center.  Would certainly stay here again.  Good size suite with separate living room which is nice in the morning and evening so others can sleep undisturbed.More</t>
   </si>
   <si>
+    <t>Andreas v v</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r441036902-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -2213,6 +2456,9 @@
     <t>Nothing left to say - this place rocks! Location is close to restaurants and only 15 minutes from the Texas Motor Speedway. The "Happy Hour" in the evenings is nice, too. Plenty of food and beverages.More</t>
   </si>
   <si>
+    <t>georgesX8718LM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r437387089-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -2261,6 +2507,9 @@
     <t>I want to thank Homewood and the staff for being so welcoming as we celebrated a rehearsal dinner. Hotel is beautiful and the staff is just great! Thank you all for everything.- Sharon &amp; Rodolfo Gonzalez More</t>
   </si>
   <si>
+    <t>Hal S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r435322750-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -2279,6 +2528,9 @@
     <t>Approx. 25 minutes from Fort Worth located in the Trophy Club/Keller, TX area.  This is an excellent new facility that comes with a kitchenette area.  Although we didn't use it there is a lazy river pool available for everyone!More</t>
   </si>
   <si>
+    <t>June P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r433830326-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -2303,6 +2555,9 @@
     <t>Nice clean room. Very comfortable bed....the sofa. ..not so much. Loved the swivel tv.  Yummy breakfast, and enjoyed the outdoor seating every morning. Frig,  dishwasher,  microwave and small cook top. Very friendly staff. More</t>
   </si>
   <si>
+    <t>Anthony B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r420468189-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -2324,6 +2579,9 @@
     <t>Clean facility, great location, excellent staff.  Loved this place!  First time staying at this property.  We will definitely be back for another stay! Room was clean and spacious.  Complimentary breakfast was excellent offering several healthy options.  Well stocked kitchen in our room made preparing snacks for the kids a breeze.More</t>
   </si>
   <si>
+    <t>MzNashVegas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r418540793-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -2348,6 +2606,9 @@
     <t>The rooms were spacious and accommodating, the ceiling fan in the bedroom was just the added touch I needed. The personal care products were top of the line and the breakfast was so delicious.  Please consider larger towels for the pool area, along with a roving vacuum as the pool was dirty and there was no skimmer in sight.  The breakfast selections were pretty good, however; hash-browns were dried out.More</t>
   </si>
   <si>
+    <t>OutlawCruiser</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r415802145-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
   </si>
   <si>
@@ -2370,6 +2631,9 @@
   </si>
   <si>
     <t>The Homewood Suites opened on Wednesday and we stayed there Saturday night.  As expected with a new hotel, it was very clean and tidy.  It has a boutique feel with its modern and colorful decorations.  The front desk was friendly and helpful.  The breakfast room was crowded but the food was good.  The breakfast attendants kept everything stocked.  The swimming pool has a lazy river in it, Although we didn't swim, it was very appealing.  I highly recommend this new hotel.  We make many trips to the Dallas area and we will be back to the Homewood Suites Trophy Club.More</t>
+  </si>
+  <si>
+    <t>Nashonal</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56789-d10174645-r416344515-Homewood_Suites_by_Hilton_Trophy_Club_Fort_Worth_North-Trophy_Club_Texas.html</t>
@@ -2898,43 +3162,47 @@
       <c r="A2" t="n">
         <v>64799</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>159186</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2956,56 +3224,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64799</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>44559</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -3021,56 +3293,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64799</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>159187</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -3092,56 +3368,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64799</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>159188</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -3163,56 +3443,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64799</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>14709</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -3234,56 +3518,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64799</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>159189</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -3305,56 +3593,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="X7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64799</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>159190</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
         <v>92</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" t="s">
-        <v>86</v>
-      </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3366,56 +3658,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="X8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64799</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>997</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -3437,56 +3733,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="X9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64799</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>159191</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3508,56 +3808,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="X10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64799</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>159192</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3579,56 +3883,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="X11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>64799</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>123696</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3646,56 +3954,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="X12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>64799</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>7466</v>
+      </c>
+      <c r="C13" t="s">
+        <v>140</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="O13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3707,56 +4019,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="X13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>64799</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>159193</v>
+      </c>
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -3778,56 +4094,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="X14" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>64799</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>18249</v>
+      </c>
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3849,56 +4169,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="X15" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="Y15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>64799</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>159194</v>
+      </c>
+      <c r="C16" t="s">
+        <v>163</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="O16" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3916,56 +4240,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="X16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="Y16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>64799</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>3470</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="J17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3987,56 +4315,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="X17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="Y17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>64799</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>159195</v>
+      </c>
+      <c r="C18" t="s">
+        <v>182</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="J18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -4058,56 +4390,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="X18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="Y18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>64799</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>1674</v>
+      </c>
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="J19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="O19" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -4129,56 +4465,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="X19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="Y19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>64799</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>159196</v>
+      </c>
+      <c r="C20" t="s">
+        <v>201</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -4200,56 +4540,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="X20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="Y20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>64799</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>57190</v>
+      </c>
+      <c r="C21" t="s">
+        <v>210</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="J21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="K21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -4267,56 +4611,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="X21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="Y21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>64799</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>4575</v>
+      </c>
+      <c r="C22" t="s">
+        <v>219</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="J22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="K22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="O22" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -4338,56 +4686,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="X22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="Y22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>64799</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>159197</v>
+      </c>
+      <c r="C23" t="s">
+        <v>229</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="J23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="K23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="O23" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4399,56 +4751,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="X23" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="Y23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>64799</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>159198</v>
+      </c>
+      <c r="C24" t="s">
+        <v>236</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="J24" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="K24" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -4470,56 +4826,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="X24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="Y24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>64799</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>159199</v>
+      </c>
+      <c r="C25" t="s">
+        <v>245</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="J25" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s">
+        <v>249</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
         <v>225</v>
       </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>204</v>
-      </c>
       <c r="O25" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -4541,56 +4901,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="X25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="Y25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>64799</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>159200</v>
+      </c>
+      <c r="C26" t="s">
+        <v>253</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="J26" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="K26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4612,56 +4976,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="X26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="Y26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>64799</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>7638</v>
+      </c>
+      <c r="C27" t="s">
+        <v>262</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="J27" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="K27" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="L27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="O27" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -4683,56 +5051,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="X27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="Y27" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>64799</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>159201</v>
+      </c>
+      <c r="C28" t="s">
+        <v>272</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="J28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="K28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="L28" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4754,56 +5126,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="X28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="Y28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>64799</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>159202</v>
+      </c>
+      <c r="C29" t="s">
+        <v>281</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="J29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="K29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="L29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="O29" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4825,56 +5201,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="X29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="Y29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>64799</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>159203</v>
+      </c>
+      <c r="C30" t="s">
+        <v>290</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="J30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="K30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="L30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -4896,56 +5276,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="X30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="Y30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>64799</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>159204</v>
+      </c>
+      <c r="C31" t="s">
+        <v>299</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="J31" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="K31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="L31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4967,56 +5351,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="X31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="Y31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>64799</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>11777</v>
+      </c>
+      <c r="C32" t="s">
+        <v>307</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="J32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="K32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="L32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="O32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -5038,56 +5426,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="X32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="Y32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>64799</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>159205</v>
+      </c>
+      <c r="C33" t="s">
+        <v>317</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="J33" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="K33" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="L33" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="O33" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -5109,56 +5501,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="X33" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="Y33" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>64799</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>57190</v>
+      </c>
+      <c r="C34" t="s">
+        <v>210</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="J34" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="K34" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="L34" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -5180,56 +5576,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="X34" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="Y34" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>64799</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>159206</v>
+      </c>
+      <c r="C35" t="s">
+        <v>332</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="J35" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="K35" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="L35" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="O35" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -5251,56 +5651,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="X35" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="Y35" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>64799</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>159207</v>
+      </c>
+      <c r="C36" t="s">
+        <v>339</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="J36" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="K36" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="L36" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="O36" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -5322,56 +5726,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="X36" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="Y36" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>64799</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>6412</v>
+      </c>
+      <c r="C37" t="s">
+        <v>348</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="J37" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="K37" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="L37" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="O37" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -5393,56 +5801,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="X37" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="Y37" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>64799</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>159208</v>
+      </c>
+      <c r="C38" t="s">
+        <v>357</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="J38" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="K38" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="L38" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="O38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5458,56 +5870,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="X38" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="Y38" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>64799</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>66019</v>
+      </c>
+      <c r="C39" t="s">
+        <v>366</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="J39" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="K39" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="L39" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -5529,56 +5945,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="X39" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="Y39" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>64799</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>159209</v>
+      </c>
+      <c r="C40" t="s">
+        <v>372</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="J40" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="K40" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="L40" t="s">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>340</v>
+        <v>378</v>
       </c>
       <c r="O40" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -5600,56 +6020,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="X40" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="Y40" t="s">
-        <v>341</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>64799</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>159210</v>
+      </c>
+      <c r="C41" t="s">
+        <v>380</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="J41" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="K41" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="L41" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5671,56 +6095,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="X41" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="Y41" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>64799</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>159211</v>
+      </c>
+      <c r="C42" t="s">
+        <v>389</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="J42" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="K42" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="L42" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -5742,56 +6170,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="X42" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="Y42" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>64799</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>159212</v>
+      </c>
+      <c r="C43" t="s">
+        <v>397</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="J43" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="K43" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="L43" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5813,56 +6245,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="X43" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="Y43" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>64799</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>159213</v>
+      </c>
+      <c r="C44" t="s">
+        <v>403</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="J44" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="K44" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="L44" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>2</v>
@@ -5884,56 +6320,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="X44" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="Y44" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>64799</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>159214</v>
+      </c>
+      <c r="C45" t="s">
+        <v>410</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="J45" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="K45" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="L45" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5945,56 +6385,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="X45" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="Y45" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>64799</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>159215</v>
+      </c>
+      <c r="C46" t="s">
+        <v>420</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
+        <v>422</v>
+      </c>
+      <c r="J46" t="s">
+        <v>423</v>
+      </c>
+      <c r="K46" t="s">
+        <v>424</v>
+      </c>
+      <c r="L46" t="s">
+        <v>425</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
         <v>378</v>
       </c>
-      <c r="J46" t="s">
-        <v>379</v>
-      </c>
-      <c r="K46" t="s">
-        <v>380</v>
-      </c>
-      <c r="L46" t="s">
-        <v>381</v>
-      </c>
-      <c r="M46" t="n">
-        <v>5</v>
-      </c>
-      <c r="N46" t="s">
-        <v>340</v>
-      </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -6016,56 +6460,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="X46" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="Y46" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>64799</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>159216</v>
+      </c>
+      <c r="C47" t="s">
+        <v>429</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="J47" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="K47" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="L47" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="O47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -6087,56 +6535,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="X47" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="Y47" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>64799</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>159217</v>
+      </c>
+      <c r="C48" t="s">
+        <v>439</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="J48" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="K48" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="L48" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -6158,13 +6610,13 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="X48" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="Y48" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49">
@@ -6177,37 +6629,37 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="J49" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="K49" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="L49" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -6229,56 +6681,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="X49" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="Y49" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>64799</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>159218</v>
+      </c>
+      <c r="C50" t="s">
+        <v>457</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="J50" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="K50" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
       <c r="L50" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="O50" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -6300,13 +6756,13 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="X50" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="Y50" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
     </row>
     <row r="51">
@@ -6319,37 +6775,37 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="J51" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="K51" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="L51" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="O51" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -6371,56 +6827,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="X51" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="Y51" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>64799</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>159219</v>
+      </c>
+      <c r="C52" t="s">
+        <v>472</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>426</v>
+        <v>474</v>
       </c>
       <c r="J52" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="K52" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="L52" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="O52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -6442,56 +6902,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="X52" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="Y52" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>64799</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>159220</v>
+      </c>
+      <c r="C53" t="s">
+        <v>481</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>433</v>
+        <v>482</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>434</v>
+        <v>483</v>
       </c>
       <c r="J53" t="s">
-        <v>435</v>
+        <v>484</v>
       </c>
       <c r="K53" t="s">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="L53" t="s">
-        <v>437</v>
+        <v>486</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -6513,56 +6977,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="X53" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="Y53" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>64799</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>322</v>
+      </c>
+      <c r="C54" t="s">
+        <v>491</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="J54" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="K54" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="L54" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="O54" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6584,56 +7052,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="X54" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="Y54" t="s">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>64799</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>159221</v>
+      </c>
+      <c r="C55" t="s">
+        <v>501</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="J55" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="K55" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="L55" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="O55" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6655,13 +7127,13 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="X55" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="Y55" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
     </row>
     <row r="56">
@@ -6674,37 +7146,37 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="J56" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="K56" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="L56" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6726,56 +7198,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="X56" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="Y56" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>64799</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>159222</v>
+      </c>
+      <c r="C57" t="s">
+        <v>513</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="J57" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="K57" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="L57" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6797,13 +7273,13 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="X57" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="Y57" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
     </row>
     <row r="58">
@@ -6816,37 +7292,37 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="J58" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="K58" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="L58" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6858,56 +7334,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="X58" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="Y58" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>64799</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>29574</v>
+      </c>
+      <c r="C59" t="s">
+        <v>531</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>480</v>
+        <v>533</v>
       </c>
       <c r="J59" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="K59" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L59" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="O59" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6929,56 +7409,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="X59" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="Y59" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>64799</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>159223</v>
+      </c>
+      <c r="C60" t="s">
+        <v>537</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="J60" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="K60" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="L60" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6990,56 +7474,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="X60" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="Y60" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>64799</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>159224</v>
+      </c>
+      <c r="C61" t="s">
+        <v>546</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="J61" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="K61" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="L61" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="O61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -7061,56 +7549,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="X61" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="Y61" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>64799</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>159225</v>
+      </c>
+      <c r="C62" t="s">
+        <v>554</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="J62" t="s">
-        <v>501</v>
+        <v>557</v>
       </c>
       <c r="K62" t="s">
-        <v>502</v>
+        <v>558</v>
       </c>
       <c r="L62" t="s">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="O62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -7132,56 +7624,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="X62" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="Y62" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>64799</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>159226</v>
+      </c>
+      <c r="C63" t="s">
+        <v>561</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="J63" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="K63" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
       <c r="L63" t="s">
-        <v>509</v>
+        <v>566</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="O63" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -7193,13 +7689,13 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
       <c r="X63" t="s">
-        <v>511</v>
+        <v>568</v>
       </c>
       <c r="Y63" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
     </row>
     <row r="64">
@@ -7212,37 +7708,37 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>514</v>
+        <v>571</v>
       </c>
       <c r="J64" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
       <c r="K64" t="s">
-        <v>516</v>
+        <v>573</v>
       </c>
       <c r="L64" t="s">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -7264,56 +7760,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="X64" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="Y64" t="s">
-        <v>520</v>
+        <v>577</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>64799</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>159227</v>
+      </c>
+      <c r="C65" t="s">
+        <v>578</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>521</v>
+        <v>579</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
       <c r="J65" t="s">
-        <v>523</v>
+        <v>581</v>
       </c>
       <c r="K65" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="L65" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -7335,56 +7835,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="X65" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="Y65" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>64799</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>15503</v>
+      </c>
+      <c r="C66" t="s">
+        <v>588</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>530</v>
+        <v>589</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>531</v>
+        <v>590</v>
       </c>
       <c r="J66" t="s">
-        <v>532</v>
+        <v>591</v>
       </c>
       <c r="K66" t="s">
-        <v>533</v>
+        <v>592</v>
       </c>
       <c r="L66" t="s">
-        <v>534</v>
+        <v>593</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="n">
@@ -7402,56 +7906,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="X66" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="Y66" t="s">
-        <v>535</v>
+        <v>594</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>64799</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>123696</v>
+      </c>
+      <c r="C67" t="s">
+        <v>131</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>536</v>
+        <v>595</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>537</v>
+        <v>596</v>
       </c>
       <c r="J67" t="s">
-        <v>538</v>
+        <v>597</v>
       </c>
       <c r="K67" t="s">
-        <v>539</v>
+        <v>598</v>
       </c>
       <c r="L67" t="s">
-        <v>540</v>
+        <v>599</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="O67" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -7467,56 +7975,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>541</v>
+        <v>600</v>
       </c>
       <c r="X67" t="s">
-        <v>542</v>
+        <v>601</v>
       </c>
       <c r="Y67" t="s">
-        <v>543</v>
+        <v>602</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>64799</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>159228</v>
+      </c>
+      <c r="C68" t="s">
+        <v>603</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>544</v>
+        <v>604</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>545</v>
+        <v>605</v>
       </c>
       <c r="J68" t="s">
-        <v>538</v>
+        <v>597</v>
       </c>
       <c r="K68" t="s">
-        <v>546</v>
+        <v>606</v>
       </c>
       <c r="L68" t="s">
-        <v>547</v>
+        <v>607</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="O68" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7538,56 +8050,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>541</v>
+        <v>600</v>
       </c>
       <c r="X68" t="s">
-        <v>542</v>
+        <v>601</v>
       </c>
       <c r="Y68" t="s">
-        <v>548</v>
+        <v>608</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>64799</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>159229</v>
+      </c>
+      <c r="C69" t="s">
+        <v>609</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>549</v>
+        <v>610</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>550</v>
+        <v>611</v>
       </c>
       <c r="J69" t="s">
-        <v>551</v>
+        <v>612</v>
       </c>
       <c r="K69" t="s">
-        <v>552</v>
+        <v>613</v>
       </c>
       <c r="L69" t="s">
-        <v>553</v>
+        <v>614</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="O69" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -7609,56 +8125,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>554</v>
+        <v>615</v>
       </c>
       <c r="X69" t="s">
-        <v>555</v>
+        <v>616</v>
       </c>
       <c r="Y69" t="s">
-        <v>556</v>
+        <v>617</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>64799</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>159230</v>
+      </c>
+      <c r="C70" t="s">
+        <v>618</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>557</v>
+        <v>619</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>558</v>
+        <v>620</v>
       </c>
       <c r="J70" t="s">
-        <v>559</v>
+        <v>621</v>
       </c>
       <c r="K70" t="s">
-        <v>560</v>
+        <v>622</v>
       </c>
       <c r="L70" t="s">
-        <v>561</v>
+        <v>623</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="O70" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7680,56 +8200,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>562</v>
+        <v>624</v>
       </c>
       <c r="X70" t="s">
-        <v>563</v>
+        <v>625</v>
       </c>
       <c r="Y70" t="s">
-        <v>564</v>
+        <v>626</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>64799</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>11777</v>
+      </c>
+      <c r="C71" t="s">
+        <v>307</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>565</v>
+        <v>627</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>566</v>
+        <v>628</v>
       </c>
       <c r="J71" t="s">
-        <v>567</v>
+        <v>629</v>
       </c>
       <c r="K71" t="s">
-        <v>568</v>
+        <v>630</v>
       </c>
       <c r="L71" t="s">
-        <v>569</v>
+        <v>631</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7749,56 +8273,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>570</v>
+        <v>632</v>
       </c>
       <c r="X71" t="s">
-        <v>571</v>
+        <v>633</v>
       </c>
       <c r="Y71" t="s">
-        <v>572</v>
+        <v>634</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>64799</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>159231</v>
+      </c>
+      <c r="C72" t="s">
+        <v>635</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>573</v>
+        <v>636</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>574</v>
+        <v>637</v>
       </c>
       <c r="J72" t="s">
-        <v>575</v>
+        <v>638</v>
       </c>
       <c r="K72" t="s">
-        <v>576</v>
+        <v>639</v>
       </c>
       <c r="L72" t="s">
-        <v>577</v>
+        <v>640</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="O72" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7820,56 +8348,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>578</v>
+        <v>641</v>
       </c>
       <c r="X72" t="s">
-        <v>579</v>
+        <v>642</v>
       </c>
       <c r="Y72" t="s">
-        <v>580</v>
+        <v>643</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>64799</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>159232</v>
+      </c>
+      <c r="C73" t="s">
+        <v>644</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>581</v>
+        <v>645</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>582</v>
+        <v>646</v>
       </c>
       <c r="J73" t="s">
-        <v>583</v>
+        <v>647</v>
       </c>
       <c r="K73" t="s">
-        <v>584</v>
+        <v>648</v>
       </c>
       <c r="L73" t="s">
-        <v>585</v>
+        <v>649</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="O73" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7891,56 +8423,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>586</v>
+        <v>650</v>
       </c>
       <c r="X73" t="s">
-        <v>587</v>
+        <v>651</v>
       </c>
       <c r="Y73" t="s">
-        <v>588</v>
+        <v>652</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>64799</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>159233</v>
+      </c>
+      <c r="C74" t="s">
+        <v>653</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>589</v>
+        <v>654</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>590</v>
+        <v>655</v>
       </c>
       <c r="J74" t="s">
-        <v>591</v>
+        <v>656</v>
       </c>
       <c r="K74" t="s">
-        <v>592</v>
+        <v>657</v>
       </c>
       <c r="L74" t="s">
-        <v>593</v>
+        <v>658</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>594</v>
+        <v>659</v>
       </c>
       <c r="O74" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7962,56 +8498,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>586</v>
+        <v>650</v>
       </c>
       <c r="X74" t="s">
-        <v>587</v>
+        <v>651</v>
       </c>
       <c r="Y74" t="s">
-        <v>595</v>
+        <v>660</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>64799</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>159234</v>
+      </c>
+      <c r="C75" t="s">
+        <v>661</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>596</v>
+        <v>662</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>597</v>
+        <v>663</v>
       </c>
       <c r="J75" t="s">
-        <v>598</v>
+        <v>664</v>
       </c>
       <c r="K75" t="s">
-        <v>599</v>
+        <v>665</v>
       </c>
       <c r="L75" t="s">
-        <v>600</v>
+        <v>666</v>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>594</v>
+        <v>659</v>
       </c>
       <c r="O75" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
@@ -8023,13 +8563,13 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>601</v>
+        <v>667</v>
       </c>
       <c r="X75" t="s">
-        <v>602</v>
+        <v>668</v>
       </c>
       <c r="Y75" t="s">
-        <v>603</v>
+        <v>669</v>
       </c>
     </row>
     <row r="76">
@@ -8042,37 +8582,37 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>604</v>
+        <v>670</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>605</v>
+        <v>671</v>
       </c>
       <c r="J76" t="s">
-        <v>606</v>
+        <v>672</v>
       </c>
       <c r="K76" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="L76" t="s">
-        <v>607</v>
+        <v>673</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>594</v>
+        <v>659</v>
       </c>
       <c r="O76" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -8094,56 +8634,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>608</v>
+        <v>674</v>
       </c>
       <c r="X76" t="s">
-        <v>609</v>
+        <v>675</v>
       </c>
       <c r="Y76" t="s">
-        <v>610</v>
+        <v>676</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>64799</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>44911</v>
+      </c>
+      <c r="C77" t="s">
+        <v>677</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>611</v>
+        <v>678</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>612</v>
+        <v>679</v>
       </c>
       <c r="J77" t="s">
-        <v>613</v>
+        <v>680</v>
       </c>
       <c r="K77" t="s">
-        <v>614</v>
+        <v>681</v>
       </c>
       <c r="L77" t="s">
-        <v>615</v>
+        <v>682</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>594</v>
+        <v>659</v>
       </c>
       <c r="O77" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -8165,56 +8709,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>608</v>
+        <v>674</v>
       </c>
       <c r="X77" t="s">
-        <v>609</v>
+        <v>675</v>
       </c>
       <c r="Y77" t="s">
-        <v>616</v>
+        <v>683</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>64799</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>159235</v>
+      </c>
+      <c r="C78" t="s">
+        <v>684</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>617</v>
+        <v>685</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>618</v>
+        <v>686</v>
       </c>
       <c r="J78" t="s">
-        <v>619</v>
+        <v>687</v>
       </c>
       <c r="K78" t="s">
-        <v>620</v>
+        <v>688</v>
       </c>
       <c r="L78" t="s">
-        <v>621</v>
+        <v>689</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>594</v>
+        <v>659</v>
       </c>
       <c r="O78" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -8236,56 +8784,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>608</v>
+        <v>674</v>
       </c>
       <c r="X78" t="s">
-        <v>609</v>
+        <v>675</v>
       </c>
       <c r="Y78" t="s">
-        <v>622</v>
+        <v>690</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>64799</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>159236</v>
+      </c>
+      <c r="C79" t="s">
+        <v>691</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>623</v>
+        <v>692</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>624</v>
+        <v>693</v>
       </c>
       <c r="J79" t="s">
-        <v>625</v>
+        <v>694</v>
       </c>
       <c r="K79" t="s">
-        <v>626</v>
+        <v>695</v>
       </c>
       <c r="L79" t="s">
-        <v>627</v>
+        <v>696</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>594</v>
+        <v>659</v>
       </c>
       <c r="O79" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -8307,56 +8859,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>628</v>
+        <v>697</v>
       </c>
       <c r="X79" t="s">
-        <v>629</v>
+        <v>698</v>
       </c>
       <c r="Y79" t="s">
-        <v>630</v>
+        <v>699</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>64799</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>159237</v>
+      </c>
+      <c r="C80" t="s">
+        <v>700</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>631</v>
+        <v>701</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>632</v>
+        <v>702</v>
       </c>
       <c r="J80" t="s">
-        <v>633</v>
+        <v>703</v>
       </c>
       <c r="K80" t="s">
-        <v>634</v>
+        <v>704</v>
       </c>
       <c r="L80" t="s">
-        <v>635</v>
+        <v>705</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>594</v>
+        <v>659</v>
       </c>
       <c r="O80" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -8378,56 +8934,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>636</v>
+        <v>706</v>
       </c>
       <c r="X80" t="s">
-        <v>637</v>
+        <v>707</v>
       </c>
       <c r="Y80" t="s">
-        <v>638</v>
+        <v>708</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>64799</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>159238</v>
+      </c>
+      <c r="C81" t="s">
+        <v>709</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>639</v>
+        <v>710</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>640</v>
+        <v>711</v>
       </c>
       <c r="J81" t="s">
-        <v>641</v>
+        <v>712</v>
       </c>
       <c r="K81" t="s">
-        <v>642</v>
+        <v>713</v>
       </c>
       <c r="L81" t="s">
-        <v>643</v>
+        <v>714</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>594</v>
+        <v>659</v>
       </c>
       <c r="O81" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="s"/>
@@ -8439,56 +8999,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>636</v>
+        <v>706</v>
       </c>
       <c r="X81" t="s">
-        <v>637</v>
+        <v>707</v>
       </c>
       <c r="Y81" t="s">
-        <v>644</v>
+        <v>715</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>64799</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>115648</v>
+      </c>
+      <c r="C82" t="s">
+        <v>716</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>645</v>
+        <v>717</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>646</v>
+        <v>718</v>
       </c>
       <c r="J82" t="s">
-        <v>647</v>
+        <v>719</v>
       </c>
       <c r="K82" t="s">
-        <v>648</v>
+        <v>720</v>
       </c>
       <c r="L82" t="s">
-        <v>649</v>
+        <v>721</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>594</v>
+        <v>659</v>
       </c>
       <c r="O82" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -8510,56 +9074,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>650</v>
+        <v>722</v>
       </c>
       <c r="X82" t="s">
-        <v>651</v>
+        <v>723</v>
       </c>
       <c r="Y82" t="s">
-        <v>652</v>
+        <v>724</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>64799</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>159239</v>
+      </c>
+      <c r="C83" t="s">
+        <v>725</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>653</v>
+        <v>726</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>654</v>
+        <v>727</v>
       </c>
       <c r="J83" t="s">
-        <v>655</v>
+        <v>728</v>
       </c>
       <c r="K83" t="s">
-        <v>656</v>
+        <v>729</v>
       </c>
       <c r="L83" t="s">
-        <v>657</v>
+        <v>730</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>658</v>
+        <v>731</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="n">
@@ -8577,56 +9145,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>659</v>
+        <v>732</v>
       </c>
       <c r="X83" t="s">
-        <v>660</v>
+        <v>733</v>
       </c>
       <c r="Y83" t="s">
-        <v>661</v>
+        <v>734</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>64799</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>159240</v>
+      </c>
+      <c r="C84" t="s">
+        <v>735</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>662</v>
+        <v>736</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>663</v>
+        <v>737</v>
       </c>
       <c r="J84" t="s">
-        <v>655</v>
+        <v>728</v>
       </c>
       <c r="K84" t="s">
-        <v>664</v>
+        <v>738</v>
       </c>
       <c r="L84" t="s">
-        <v>665</v>
+        <v>739</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>658</v>
+        <v>731</v>
       </c>
       <c r="O84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P84" t="s"/>
       <c r="Q84" t="n">
@@ -8644,56 +9216,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>659</v>
+        <v>732</v>
       </c>
       <c r="X84" t="s">
-        <v>660</v>
+        <v>733</v>
       </c>
       <c r="Y84" t="s">
-        <v>666</v>
+        <v>740</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>64799</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>159241</v>
+      </c>
+      <c r="C85" t="s">
+        <v>741</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>667</v>
+        <v>742</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>668</v>
+        <v>743</v>
       </c>
       <c r="J85" t="s">
-        <v>669</v>
+        <v>744</v>
       </c>
       <c r="K85" t="s">
-        <v>670</v>
+        <v>745</v>
       </c>
       <c r="L85" t="s">
-        <v>671</v>
+        <v>746</v>
       </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
       <c r="N85" t="s">
-        <v>658</v>
+        <v>731</v>
       </c>
       <c r="O85" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P85" t="n">
         <v>1</v>
@@ -8715,56 +9291,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>659</v>
+        <v>732</v>
       </c>
       <c r="X85" t="s">
-        <v>660</v>
+        <v>733</v>
       </c>
       <c r="Y85" t="s">
-        <v>672</v>
+        <v>747</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>64799</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>159242</v>
+      </c>
+      <c r="C86" t="s">
+        <v>748</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>673</v>
+        <v>749</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>674</v>
+        <v>750</v>
       </c>
       <c r="J86" t="s">
-        <v>675</v>
+        <v>751</v>
       </c>
       <c r="K86" t="s">
-        <v>676</v>
+        <v>752</v>
       </c>
       <c r="L86" t="s">
-        <v>677</v>
+        <v>753</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>658</v>
+        <v>731</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="s"/>
       <c r="Q86" t="s"/>
@@ -8776,56 +9356,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>678</v>
+        <v>754</v>
       </c>
       <c r="X86" t="s">
-        <v>679</v>
+        <v>755</v>
       </c>
       <c r="Y86" t="s">
-        <v>680</v>
+        <v>756</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>64799</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>159243</v>
+      </c>
+      <c r="C87" t="s">
+        <v>757</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>681</v>
+        <v>758</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>682</v>
+        <v>759</v>
       </c>
       <c r="J87" t="s">
-        <v>683</v>
+        <v>760</v>
       </c>
       <c r="K87" t="s">
-        <v>684</v>
+        <v>761</v>
       </c>
       <c r="L87" t="s">
-        <v>685</v>
+        <v>762</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>686</v>
+        <v>763</v>
       </c>
       <c r="O87" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8847,56 +9431,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>687</v>
+        <v>764</v>
       </c>
       <c r="X87" t="s">
-        <v>688</v>
+        <v>765</v>
       </c>
       <c r="Y87" t="s">
-        <v>689</v>
+        <v>766</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>64799</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>3929</v>
+      </c>
+      <c r="C88" t="s">
+        <v>767</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>690</v>
+        <v>768</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>691</v>
+        <v>769</v>
       </c>
       <c r="J88" t="s">
-        <v>692</v>
+        <v>770</v>
       </c>
       <c r="K88" t="s">
-        <v>693</v>
+        <v>771</v>
       </c>
       <c r="L88" t="s">
-        <v>694</v>
+        <v>772</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>695</v>
+        <v>773</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="s"/>
       <c r="Q88" t="s"/>
@@ -8912,56 +9500,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>696</v>
+        <v>774</v>
       </c>
       <c r="X88" t="s">
-        <v>697</v>
+        <v>775</v>
       </c>
       <c r="Y88" t="s">
-        <v>698</v>
+        <v>776</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>64799</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>159244</v>
+      </c>
+      <c r="C89" t="s">
+        <v>777</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>699</v>
+        <v>778</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>700</v>
+        <v>779</v>
       </c>
       <c r="J89" t="s">
-        <v>701</v>
+        <v>780</v>
       </c>
       <c r="K89" t="s">
-        <v>702</v>
+        <v>781</v>
       </c>
       <c r="L89" t="s">
-        <v>703</v>
+        <v>782</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>686</v>
+        <v>763</v>
       </c>
       <c r="O89" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8983,56 +9575,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>696</v>
+        <v>774</v>
       </c>
       <c r="X89" t="s">
-        <v>697</v>
+        <v>775</v>
       </c>
       <c r="Y89" t="s">
-        <v>704</v>
+        <v>783</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>64799</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>159245</v>
+      </c>
+      <c r="C90" t="s">
+        <v>784</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>705</v>
+        <v>785</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>706</v>
+        <v>786</v>
       </c>
       <c r="J90" t="s">
-        <v>701</v>
+        <v>780</v>
       </c>
       <c r="K90" t="s">
-        <v>707</v>
+        <v>787</v>
       </c>
       <c r="L90" t="s">
-        <v>708</v>
+        <v>788</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
       </c>
       <c r="N90" t="s">
-        <v>686</v>
+        <v>763</v>
       </c>
       <c r="O90" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -9054,13 +9650,13 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>696</v>
+        <v>774</v>
       </c>
       <c r="X90" t="s">
-        <v>697</v>
+        <v>775</v>
       </c>
       <c r="Y90" t="s">
-        <v>709</v>
+        <v>789</v>
       </c>
     </row>
     <row r="91">
@@ -9073,37 +9669,37 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>710</v>
+        <v>790</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>711</v>
+        <v>791</v>
       </c>
       <c r="J91" t="s">
-        <v>712</v>
+        <v>792</v>
       </c>
       <c r="K91" t="s">
-        <v>713</v>
+        <v>793</v>
       </c>
       <c r="L91" t="s">
-        <v>714</v>
+        <v>794</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>715</v>
+        <v>795</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -9125,56 +9721,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>716</v>
+        <v>796</v>
       </c>
       <c r="X91" t="s">
-        <v>717</v>
+        <v>797</v>
       </c>
       <c r="Y91" t="s">
-        <v>718</v>
+        <v>798</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>64799</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>50162</v>
+      </c>
+      <c r="C92" t="s">
+        <v>799</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>719</v>
+        <v>800</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>720</v>
+        <v>801</v>
       </c>
       <c r="J92" t="s">
-        <v>721</v>
+        <v>802</v>
       </c>
       <c r="K92" t="s">
-        <v>722</v>
+        <v>803</v>
       </c>
       <c r="L92" t="s">
-        <v>723</v>
+        <v>804</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>715</v>
+        <v>795</v>
       </c>
       <c r="O92" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -9196,56 +9796,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>716</v>
+        <v>796</v>
       </c>
       <c r="X92" t="s">
-        <v>717</v>
+        <v>797</v>
       </c>
       <c r="Y92" t="s">
-        <v>724</v>
+        <v>805</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>64799</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>159246</v>
+      </c>
+      <c r="C93" t="s">
+        <v>806</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>725</v>
+        <v>807</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>726</v>
+        <v>808</v>
       </c>
       <c r="J93" t="s">
-        <v>727</v>
+        <v>809</v>
       </c>
       <c r="K93" t="s">
-        <v>728</v>
+        <v>810</v>
       </c>
       <c r="L93" t="s">
-        <v>729</v>
+        <v>811</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>715</v>
+        <v>795</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>3</v>
@@ -9267,13 +9871,13 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>730</v>
+        <v>812</v>
       </c>
       <c r="X93" t="s">
-        <v>731</v>
+        <v>813</v>
       </c>
       <c r="Y93" t="s">
-        <v>732</v>
+        <v>814</v>
       </c>
     </row>
     <row r="94">
@@ -9286,37 +9890,37 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>733</v>
+        <v>815</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>734</v>
+        <v>816</v>
       </c>
       <c r="J94" t="s">
-        <v>735</v>
+        <v>817</v>
       </c>
       <c r="K94" t="s">
-        <v>736</v>
+        <v>818</v>
       </c>
       <c r="L94" t="s">
-        <v>737</v>
+        <v>819</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="s"/>
       <c r="Q94" t="s"/>
@@ -9328,56 +9932,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>738</v>
+        <v>820</v>
       </c>
       <c r="X94" t="s">
-        <v>739</v>
+        <v>821</v>
       </c>
       <c r="Y94" t="s">
-        <v>740</v>
+        <v>822</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>64799</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>88446</v>
+      </c>
+      <c r="C95" t="s">
+        <v>823</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>741</v>
+        <v>824</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>742</v>
+        <v>825</v>
       </c>
       <c r="J95" t="s">
-        <v>743</v>
+        <v>826</v>
       </c>
       <c r="K95" t="s">
-        <v>744</v>
+        <v>827</v>
       </c>
       <c r="L95" t="s">
-        <v>745</v>
+        <v>828</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>715</v>
+        <v>795</v>
       </c>
       <c r="O95" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="P95" t="n">
         <v>3</v>
@@ -9399,56 +10007,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>738</v>
+        <v>820</v>
       </c>
       <c r="X95" t="s">
-        <v>739</v>
+        <v>821</v>
       </c>
       <c r="Y95" t="s">
-        <v>746</v>
+        <v>829</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>64799</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>112965</v>
+      </c>
+      <c r="C96" t="s">
+        <v>830</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>747</v>
+        <v>831</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>748</v>
+        <v>832</v>
       </c>
       <c r="J96" t="s">
-        <v>749</v>
+        <v>833</v>
       </c>
       <c r="K96" t="s">
-        <v>750</v>
+        <v>834</v>
       </c>
       <c r="L96" t="s">
-        <v>751</v>
+        <v>835</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>715</v>
+        <v>795</v>
       </c>
       <c r="O96" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P96" t="s"/>
       <c r="Q96" t="s"/>
@@ -9460,56 +10072,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>752</v>
+        <v>836</v>
       </c>
       <c r="X96" t="s">
-        <v>753</v>
+        <v>837</v>
       </c>
       <c r="Y96" t="s">
-        <v>754</v>
+        <v>838</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>64799</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>2351</v>
+      </c>
+      <c r="C97" t="s">
+        <v>839</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>755</v>
+        <v>840</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>756</v>
+        <v>841</v>
       </c>
       <c r="J97" t="s">
-        <v>757</v>
+        <v>842</v>
       </c>
       <c r="K97" t="s">
-        <v>560</v>
+        <v>622</v>
       </c>
       <c r="L97" t="s">
-        <v>758</v>
+        <v>843</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>695</v>
+        <v>773</v>
       </c>
       <c r="O97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9531,56 +10147,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>759</v>
+        <v>844</v>
       </c>
       <c r="X97" t="s">
-        <v>760</v>
+        <v>845</v>
       </c>
       <c r="Y97" t="s">
-        <v>761</v>
+        <v>846</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>64799</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>159247</v>
+      </c>
+      <c r="C98" t="s">
+        <v>847</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>762</v>
+        <v>848</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>763</v>
+        <v>849</v>
       </c>
       <c r="J98" t="s">
-        <v>764</v>
+        <v>850</v>
       </c>
       <c r="K98" t="s">
-        <v>765</v>
+        <v>851</v>
       </c>
       <c r="L98" t="s">
-        <v>766</v>
+        <v>852</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>695</v>
+        <v>773</v>
       </c>
       <c r="O98" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9602,56 +10222,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>767</v>
+        <v>853</v>
       </c>
       <c r="X98" t="s">
-        <v>768</v>
+        <v>854</v>
       </c>
       <c r="Y98" t="s">
-        <v>769</v>
+        <v>855</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>64799</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>159248</v>
+      </c>
+      <c r="C99" t="s">
+        <v>856</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>770</v>
+        <v>857</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>771</v>
+        <v>858</v>
       </c>
       <c r="J99" t="s">
-        <v>772</v>
+        <v>859</v>
       </c>
       <c r="K99" t="s">
+        <v>860</v>
+      </c>
+      <c r="L99" t="s">
+        <v>861</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
         <v>773</v>
       </c>
-      <c r="L99" t="s">
-        <v>774</v>
-      </c>
-      <c r="M99" t="n">
-        <v>5</v>
-      </c>
-      <c r="N99" t="s">
-        <v>695</v>
-      </c>
       <c r="O99" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P99" t="s"/>
       <c r="Q99" t="n">
@@ -9669,56 +10293,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>775</v>
+        <v>862</v>
       </c>
       <c r="X99" t="s">
-        <v>776</v>
+        <v>863</v>
       </c>
       <c r="Y99" t="s">
-        <v>777</v>
+        <v>864</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>64799</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>159249</v>
+      </c>
+      <c r="C100" t="s">
+        <v>865</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>778</v>
+        <v>866</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>779</v>
+        <v>867</v>
       </c>
       <c r="J100" t="s">
-        <v>780</v>
+        <v>868</v>
       </c>
       <c r="K100" t="s">
-        <v>781</v>
+        <v>869</v>
       </c>
       <c r="L100" t="s">
-        <v>782</v>
+        <v>870</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>695</v>
+        <v>773</v>
       </c>
       <c r="O100" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9740,13 +10368,13 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>783</v>
+        <v>871</v>
       </c>
       <c r="X100" t="s">
-        <v>784</v>
+        <v>872</v>
       </c>
       <c r="Y100" t="s">
-        <v>785</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>
